--- a/medicine/Enfance/P._J._Lynch/P._J._Lynch.xlsx
+++ b/medicine/Enfance/P._J._Lynch/P._J._Lynch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patrick James Lynch né le 2 mars 1962 et connu sous sa signature P. J. Lynch, est un illustrateur jeunesse irlandais.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Belfast, Lynch est le plus jeune des cinq enfants de la famille[1]. Il s'intéresse très tôt à l'art et choisit notamment de passer ses heures de temps libre à l'école dans la section d'art. Il étudiera ensuite au Brighton College of Art vers 1984.
-Le premier livre illustré par Lynch publié en 1986 sera une collection de contes d'Angleterre et du Pays de Galles, écrits par Alan Garner et nommé A Bag of Moonshine . Ce fut le début d'une production de livres basés sur les histoires traditionnelles, les légendes et les contes de fées[2]. Son premier livre fut récompenser d'un Mother Goose Award.
-The Christmas Miracle of Jonathan Toomey (écrit par Susan Wojciechowski), édité en 1995, s'est avéré très populaire avec des ventes aux États-Unis dépassant un million de copies[3]. Ce succès fut récompensé de la Médaille Kate-Greenaway ainsi que la médaille de Christopher. James Earl Jones enregistra une lecture du conte qui fut nommé au Grammy Award et en fit l'adaptation au cinéma en 2007.
-Parmi ses autres activités, Lynch a notamment peint des fresques pour le Opera Ireland[4] et le Abbey Theatre. Il a également dessiné à plusieurs reprises des timbres pour An Post[5].
-Il est sélectionné à plusieurs reprises pour le prix international décerné tous les deux ans par l'IBBY, le Prix Hans Christian Andersen[6], dans la catégorie Illustration, en 2000, 2006, 2010 et 2014.
-De 2019 à 2022, il est sélectionné durant quatre années d'affilée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Belfast, Lynch est le plus jeune des cinq enfants de la famille. Il s'intéresse très tôt à l'art et choisit notamment de passer ses heures de temps libre à l'école dans la section d'art. Il étudiera ensuite au Brighton College of Art vers 1984.
+Le premier livre illustré par Lynch publié en 1986 sera une collection de contes d'Angleterre et du Pays de Galles, écrits par Alan Garner et nommé A Bag of Moonshine . Ce fut le début d'une production de livres basés sur les histoires traditionnelles, les légendes et les contes de fées. Son premier livre fut récompenser d'un Mother Goose Award.
+The Christmas Miracle of Jonathan Toomey (écrit par Susan Wojciechowski), édité en 1995, s'est avéré très populaire avec des ventes aux États-Unis dépassant un million de copies. Ce succès fut récompensé de la Médaille Kate-Greenaway ainsi que la médaille de Christopher. James Earl Jones enregistra une lecture du conte qui fut nommé au Grammy Award et en fit l'adaptation au cinéma en 2007.
+Parmi ses autres activités, Lynch a notamment peint des fresques pour le Opera Ireland et le Abbey Theatre. Il a également dessiné à plusieurs reprises des timbres pour An Post.
+Il est sélectionné à plusieurs reprises pour le prix international décerné tous les deux ans par l'IBBY, le Prix Hans Christian Andersen, dans la catégorie Illustration, en 2000, 2006, 2010 et 2014.
+De 2019 à 2022, il est sélectionné durant quatre années d'affilée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Sélection d'ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>A Bag of Moonshine (Alan Garner)
 Raggy Taggy Toys (Joyce Dunbar)
@@ -596,16 +612,18 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Mother Goose Award[8]
-Médaille Christopher à trois reprises[8]
-Irish Bisto Book of the Year Award[8]
-Médaille Kate-Greenaway 1995[8] pour ses illustrations de The Christmas Miracle of Jonathan Toomey, sur un texte de Susan Wojciechowski
-Médaille Kate-Greenaway[8] 1997 pour ses illustrations de When Jessie Came Across the Sea, sur un texte de Amy Hest
- Sélection Prix Hans Christian Andersen[6], dans la catégorie Illustration, en 2000, 2006, 2010 et 2014.
- Sélection pour le Prix commémoratif Astrid-Lindgren de 2019 à 2022[7]
-Finaliste Irish Children's Book 2023[8] pour Three Tasks for a Dragon, texte de Eoin Colfer</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mother Goose Award
+Médaille Christopher à trois reprises
+Irish Bisto Book of the Year Award
+Médaille Kate-Greenaway 1995 pour ses illustrations de The Christmas Miracle of Jonathan Toomey, sur un texte de Susan Wojciechowski
+Médaille Kate-Greenaway 1997 pour ses illustrations de When Jessie Came Across the Sea, sur un texte de Amy Hest
+ Sélection Prix Hans Christian Andersen, dans la catégorie Illustration, en 2000, 2006, 2010 et 2014.
+ Sélection pour le Prix commémoratif Astrid-Lindgren de 2019 à 2022
+Finaliste Irish Children's Book 2023 pour Three Tasks for a Dragon, texte de Eoin Colfer</t>
         </is>
       </c>
     </row>
